--- a/biology/Zoologie/Carabus_jankowskii/Carabus_jankowskii.xlsx
+++ b/biology/Zoologie/Carabus_jankowskii/Carabus_jankowskii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carabus jankowskii est une espèce de coléoptères de la famille des Carabidae, de la sous-famille des Carabinae et du sous-genre Coptolabrus. Elle est trouvée en Corée, en Chine et en Sibérie.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carabus jankowskii benxiensis Imura, 1991
 Carabus jankowskii chindoensis Kwon &amp; Park, 1989
@@ -524,9 +538,43 @@
 Carabus jankowskii quelpartianus Breuning, 1932
 Carabus jankowskii sobaekensis Deuve &amp; Remond, 1998
 Carabus jankowskii sorakensis Deuve, 1998
-Carabus jankowskii taebeagsanensis (Ishikawa &amp; Kim, 1983)
-Synonymes de sous-espèces
-Carabus elegans (Kwon &amp; Lee, 1984), un synonyme de Carabus jankowskii obtusipennis</t>
+Carabus jankowskii taebeagsanensis (Ishikawa &amp; Kim, 1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carabus_jankowskii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus_jankowskii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes de sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carabus elegans (Kwon &amp; Lee, 1984), un synonyme de Carabus jankowskii obtusipennis</t>
         </is>
       </c>
     </row>
